--- a/Finflux Automation Excels/Client/4949-TransferClientsBetweenGroups-2ndCenter.xlsx
+++ b/Finflux Automation Excels/Client/4949-TransferClientsBetweenGroups-2ndCenter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Center" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
